--- a/Code/Results/Cases/Case_5_79/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_79/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.996919632131892</v>
+        <v>1.915337084950181</v>
       </c>
       <c r="C2">
-        <v>1.626856117552279</v>
+        <v>0.7626329390460569</v>
       </c>
       <c r="D2">
-        <v>0.0423355574136437</v>
+        <v>0.07852688190416757</v>
       </c>
       <c r="E2">
-        <v>0.1186209175981219</v>
+        <v>0.1324298137335624</v>
       </c>
       <c r="F2">
-        <v>2.449829431937559</v>
+        <v>2.703581118045165</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.8808736830068185</v>
+        <v>1.173246884594349</v>
       </c>
       <c r="J2">
-        <v>0.2294894758310591</v>
+        <v>0.2152654089921668</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6781183622179618</v>
+        <v>1.451936423763815</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.455240944645084</v>
+        <v>1.781360351033243</v>
       </c>
       <c r="C3">
-        <v>1.404698135645049</v>
+        <v>0.7090328520514504</v>
       </c>
       <c r="D3">
-        <v>0.03790966611084201</v>
+        <v>0.07766014432240098</v>
       </c>
       <c r="E3">
-        <v>0.1055338581494496</v>
+        <v>0.1300552079161754</v>
       </c>
       <c r="F3">
-        <v>2.215227122679494</v>
+        <v>2.668008519446701</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.8184283131629542</v>
+        <v>1.168108977947341</v>
       </c>
       <c r="J3">
-        <v>0.2034805648971272</v>
+        <v>0.2104604425792473</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7326602509685429</v>
+        <v>1.472418139736345</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.128108724034064</v>
+        <v>1.700109919135059</v>
       </c>
       <c r="C4">
-        <v>1.271017244826226</v>
+        <v>0.6765687448395852</v>
       </c>
       <c r="D4">
-        <v>0.03521819920912606</v>
+        <v>0.07714822277164046</v>
       </c>
       <c r="E4">
-        <v>0.09770002964090096</v>
+        <v>0.1286672436207787</v>
       </c>
       <c r="F4">
-        <v>2.077591334664774</v>
+        <v>2.647991089842819</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.7827607289975091</v>
+        <v>1.165750334107372</v>
       </c>
       <c r="J4">
-        <v>0.1880100092593722</v>
+        <v>0.2076478186260147</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7677832491068841</v>
+        <v>1.485616131307431</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.995975071651742</v>
+        <v>1.667252282828542</v>
       </c>
       <c r="C5">
-        <v>1.21712930279449</v>
+        <v>0.6634503937988256</v>
       </c>
       <c r="D5">
-        <v>0.03412718639215484</v>
+        <v>0.076944736355685</v>
       </c>
       <c r="E5">
-        <v>0.09455273377057338</v>
+        <v>0.1281192083343079</v>
       </c>
       <c r="F5">
-        <v>2.02294836970465</v>
+        <v>2.64029000404939</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.7688345065975781</v>
+        <v>1.164988256555255</v>
       </c>
       <c r="J5">
-        <v>0.1818167914394238</v>
+        <v>0.2065360688796289</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.782486435418754</v>
+        <v>1.491150447538445</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.974099936197376</v>
+        <v>1.661811498981422</v>
       </c>
       <c r="C6">
-        <v>1.208214106501885</v>
+        <v>0.6612787716595676</v>
       </c>
       <c r="D6">
-        <v>0.03394635278018399</v>
+        <v>0.07691125811180655</v>
       </c>
       <c r="E6">
-        <v>0.09403269320567276</v>
+        <v>0.1280292675090493</v>
       </c>
       <c r="F6">
-        <v>2.013957605731576</v>
+        <v>2.63903872269826</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.7665570715854884</v>
+        <v>1.164873707134326</v>
       </c>
       <c r="J6">
-        <v>0.1807947326454951</v>
+        <v>0.206353536779659</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7849508945049699</v>
+        <v>1.492078828231861</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.126322212299215</v>
+        <v>1.69966576933416</v>
       </c>
       <c r="C7">
-        <v>1.2702882336215</v>
+        <v>0.6763913782265263</v>
       </c>
       <c r="D7">
-        <v>0.03520346297682408</v>
+        <v>0.07714545768549641</v>
       </c>
       <c r="E7">
-        <v>0.09765740879051776</v>
+        <v>0.128659781535454</v>
       </c>
       <c r="F7">
-        <v>2.076848760750792</v>
+        <v>2.647885386646948</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.7825705309314159</v>
+        <v>1.165739251808446</v>
       </c>
       <c r="J7">
-        <v>0.1879260532350742</v>
+        <v>0.2076326860792861</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7679799870035566</v>
+        <v>1.485690137848817</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.808890299732468</v>
+        <v>1.868930727528493</v>
       </c>
       <c r="C8">
-        <v>1.549628944815083</v>
+        <v>0.7440581658861447</v>
       </c>
       <c r="D8">
-        <v>0.04080361462099091</v>
+        <v>0.07822384445246655</v>
       </c>
       <c r="E8">
-        <v>0.1140630590374236</v>
+        <v>0.1315964821197717</v>
       </c>
       <c r="F8">
-        <v>2.367502108587729</v>
+        <v>2.690935490946458</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.8587471558175466</v>
+        <v>1.171309453041516</v>
       </c>
       <c r="J8">
-        <v>0.2204089664799085</v>
+        <v>0.2135799684315742</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6965722190272174</v>
+        <v>1.458869147399088</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.200796936905135</v>
+        <v>2.208991472260038</v>
       </c>
       <c r="C9">
-        <v>2.123989778974305</v>
+        <v>0.8803605316772973</v>
       </c>
       <c r="D9">
-        <v>0.05203197261636205</v>
+        <v>0.08049809227335913</v>
       </c>
       <c r="E9">
-        <v>0.1481225962348525</v>
+        <v>0.1379136895224633</v>
       </c>
       <c r="F9">
-        <v>2.996834183851973</v>
+        <v>2.789955708269218</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.032581575034015</v>
+        <v>1.188600361106026</v>
       </c>
       <c r="J9">
-        <v>0.2887957534802723</v>
+        <v>0.2263444712621521</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5705488274494854</v>
+        <v>1.411227413368369</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.272056144141118</v>
+        <v>2.463966126344872</v>
       </c>
       <c r="C10">
-        <v>2.570108792113842</v>
+        <v>0.9828027359249631</v>
       </c>
       <c r="D10">
-        <v>0.06049616027048899</v>
+        <v>0.08226487072695932</v>
       </c>
       <c r="E10">
-        <v>0.1747566980735158</v>
+        <v>0.1428995463344478</v>
       </c>
       <c r="F10">
-        <v>3.508936931262923</v>
+        <v>2.871790857142798</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>1.180355492113137</v>
+        <v>1.20526084678022</v>
       </c>
       <c r="J10">
-        <v>0.3430610620929997</v>
+        <v>0.2364092117751539</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4881545887356857</v>
+        <v>1.379268598836834</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.774226401076248</v>
+        <v>2.58111523309941</v>
       </c>
       <c r="C11">
-        <v>2.780419811044624</v>
+        <v>1.029928884805202</v>
       </c>
       <c r="D11">
-        <v>0.06441058075855466</v>
+        <v>0.08308917981138109</v>
       </c>
       <c r="E11">
-        <v>0.1873449585842337</v>
+        <v>0.1452435530185952</v>
       </c>
       <c r="F11">
-        <v>3.756306410120999</v>
+        <v>2.911033834040921</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>1.253306099965158</v>
+        <v>1.213715941644594</v>
       </c>
       <c r="J11">
-        <v>0.3689308640114035</v>
+        <v>0.2411403839801238</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4533277147774157</v>
+        <v>1.365395732194578</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.966942371928724</v>
+        <v>2.625646091311921</v>
       </c>
       <c r="C12">
-        <v>2.861329561599803</v>
+        <v>1.047851449854477</v>
       </c>
       <c r="D12">
-        <v>0.0659037700648355</v>
+        <v>0.08340425923006478</v>
       </c>
       <c r="E12">
-        <v>0.1921917845776022</v>
+        <v>0.1461421527264122</v>
       </c>
       <c r="F12">
-        <v>3.852408768069182</v>
+        <v>2.926187190886651</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>1.281890218180635</v>
+        <v>1.217044975724519</v>
       </c>
       <c r="J12">
-        <v>0.3789281508097702</v>
+        <v>0.242954162847056</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4405658895848639</v>
+        <v>1.360238601176519</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.925316502858095</v>
+        <v>2.616048019923255</v>
       </c>
       <c r="C13">
-        <v>2.843844025410533</v>
+        <v>1.043988060277286</v>
       </c>
       <c r="D13">
-        <v>0.06558167138523174</v>
+        <v>0.08333627133048083</v>
       </c>
       <c r="E13">
-        <v>0.1911441673557945</v>
+        <v>0.1459481341187754</v>
       </c>
       <c r="F13">
-        <v>3.831597085620871</v>
+        <v>2.922910569060519</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>1.275689056781829</v>
+        <v>1.216322327524622</v>
       </c>
       <c r="J13">
-        <v>0.3767655771935523</v>
+        <v>0.242562542605782</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4432946263950299</v>
+        <v>1.361344993294402</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.790027412083077</v>
+        <v>2.584775412808597</v>
       </c>
       <c r="C14">
-        <v>2.787049537421694</v>
+        <v>1.031401835006193</v>
       </c>
       <c r="D14">
-        <v>0.06453319765737575</v>
+        <v>0.08311504300216654</v>
       </c>
       <c r="E14">
-        <v>0.1877420324533077</v>
+        <v>0.1453172610535987</v>
       </c>
       <c r="F14">
-        <v>3.764161883863807</v>
+        <v>2.912274622278858</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>1.255637652002648</v>
+        <v>1.213987265122839</v>
       </c>
       <c r="J14">
-        <v>0.3697491261351615</v>
+        <v>0.241289158656727</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4522689656160068</v>
+        <v>1.364969520321921</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.707505260470214</v>
+        <v>2.565642118991832</v>
       </c>
       <c r="C15">
-        <v>2.752433412753987</v>
+        <v>1.023702469322473</v>
       </c>
       <c r="D15">
-        <v>0.06389244888788426</v>
+        <v>0.08297991515330239</v>
       </c>
       <c r="E15">
-        <v>0.1856689240132638</v>
+        <v>0.1449322641628399</v>
       </c>
       <c r="F15">
-        <v>3.723183741759129</v>
+        <v>2.905798031891067</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>1.243484912627949</v>
+        <v>1.212573585099236</v>
       </c>
       <c r="J15">
-        <v>0.3654785112045289</v>
+        <v>0.2405120705589781</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4578229782017793</v>
+        <v>1.367202195143513</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.239571349805999</v>
+        <v>2.456333686705534</v>
       </c>
       <c r="C16">
-        <v>2.55652994565412</v>
+        <v>0.9797336138358901</v>
       </c>
       <c r="D16">
-        <v>0.06024176937280146</v>
+        <v>0.08221141201237003</v>
       </c>
       <c r="E16">
-        <v>0.173944513943141</v>
+        <v>0.1427478925708741</v>
       </c>
       <c r="F16">
-        <v>3.493089972122164</v>
+        <v>2.869267056333968</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>1.175714373437941</v>
+        <v>1.20472602618652</v>
       </c>
       <c r="J16">
-        <v>0.3413967521062062</v>
+        <v>0.2361031104683207</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4904876810460053</v>
+        <v>1.380188658327363</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.956591020396274</v>
+        <v>2.389575150615315</v>
       </c>
       <c r="C17">
-        <v>2.438376067524587</v>
+        <v>0.9528955618046098</v>
       </c>
       <c r="D17">
-        <v>0.05801970569243764</v>
+        <v>0.08174521316590955</v>
       </c>
       <c r="E17">
-        <v>0.1668809079467835</v>
+        <v>0.1414273362581895</v>
       </c>
       <c r="F17">
-        <v>3.355862689000332</v>
+        <v>2.847374909556493</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>1.135696388771009</v>
+        <v>1.200137114456851</v>
       </c>
       <c r="J17">
-        <v>0.3269470309392943</v>
+        <v>0.2334376231618194</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5112359415286853</v>
+        <v>1.388326231233403</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.795197258729445</v>
+        <v>2.351286439348883</v>
       </c>
       <c r="C18">
-        <v>2.371096355632801</v>
+        <v>0.9375083195310481</v>
       </c>
       <c r="D18">
-        <v>0.05674754459771947</v>
+        <v>0.08147900794642027</v>
       </c>
       <c r="E18">
-        <v>0.1628617420846723</v>
+        <v>0.1406749290831542</v>
       </c>
       <c r="F18">
-        <v>3.278265313357878</v>
+        <v>2.83497267418187</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>1.113208943388472</v>
+        <v>1.197580083948381</v>
       </c>
       <c r="J18">
-        <v>0.3187453055368081</v>
+        <v>0.2319188613162595</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5234166140097471</v>
+        <v>1.393069341393971</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.740775482872436</v>
+        <v>2.338341198671912</v>
       </c>
       <c r="C19">
-        <v>2.348427403510527</v>
+        <v>0.932306886013464</v>
       </c>
       <c r="D19">
-        <v>0.05631778102569029</v>
+        <v>0.08138920955084927</v>
       </c>
       <c r="E19">
-        <v>0.1615080791976169</v>
+        <v>0.140421401811416</v>
       </c>
       <c r="F19">
-        <v>3.252210989905649</v>
+        <v>2.830805953992183</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>1.105682282772065</v>
+        <v>1.196728429145537</v>
       </c>
       <c r="J19">
-        <v>0.3159862692433109</v>
+        <v>0.2314070932847017</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5275819246703541</v>
+        <v>1.394686011046652</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.9865702342193</v>
+        <v>2.396670410168952</v>
       </c>
       <c r="C20">
-        <v>2.450882032647314</v>
+        <v>0.9557474058384514</v>
       </c>
       <c r="D20">
-        <v>0.05825562506086612</v>
+        <v>0.08179464026098771</v>
       </c>
       <c r="E20">
-        <v>0.1676282438182213</v>
+        <v>0.1415671721548293</v>
       </c>
       <c r="F20">
-        <v>3.370330490320327</v>
+        <v>2.849685726631748</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>1.139900618835952</v>
+        <v>1.200617075647301</v>
       </c>
       <c r="J20">
-        <v>0.3284737019349961</v>
+        <v>0.2337198813780503</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5090014076865899</v>
+        <v>1.387453490612266</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.829692078971846</v>
+        <v>2.593956329811306</v>
       </c>
       <c r="C21">
-        <v>2.803695157739185</v>
+        <v>1.035096615158579</v>
       </c>
       <c r="D21">
-        <v>0.06484084973227766</v>
+        <v>0.08317994380021787</v>
       </c>
       <c r="E21">
-        <v>0.1887390475852229</v>
+        <v>0.1455022654228415</v>
       </c>
       <c r="F21">
-        <v>3.783900191576947</v>
+        <v>2.915390684230005</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>1.261500010986595</v>
+        <v>1.214669665075419</v>
       </c>
       <c r="J21">
-        <v>0.3718043051100892</v>
+        <v>0.2416625783738482</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.449621021979226</v>
+        <v>1.363902293025522</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.395858963247747</v>
+        <v>2.723880431451107</v>
       </c>
       <c r="C22">
-        <v>3.04180223517767</v>
+        <v>1.087404934490905</v>
       </c>
       <c r="D22">
-        <v>0.06920909345448933</v>
+        <v>0.08410239312979684</v>
       </c>
       <c r="E22">
-        <v>0.2030090679436398</v>
+        <v>0.1481380771646172</v>
       </c>
       <c r="F22">
-        <v>4.068558420307653</v>
+        <v>2.960041320517519</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>1.346643314561916</v>
+        <v>1.224596299066405</v>
       </c>
       <c r="J22">
-        <v>0.4013126686025998</v>
+        <v>0.2469830219693705</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4133238415680545</v>
+        <v>1.349071342928731</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.092143127820009</v>
+        <v>2.654446482806179</v>
       </c>
       <c r="C23">
-        <v>2.91395298185364</v>
+        <v>1.05944542139008</v>
       </c>
       <c r="D23">
-        <v>0.06687115805873844</v>
+        <v>0.08360851202740349</v>
       </c>
       <c r="E23">
-        <v>0.1953451335665832</v>
+        <v>0.1467254188394662</v>
       </c>
       <c r="F23">
-        <v>3.915183098931692</v>
+        <v>2.936053079749968</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>1.300631101056041</v>
+        <v>1.219229904137109</v>
       </c>
       <c r="J23">
-        <v>0.385443204848869</v>
+        <v>0.2441314799761614</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4324498406677755</v>
+        <v>1.356935374816661</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.973012627587991</v>
+        <v>2.393462357991496</v>
       </c>
       <c r="C24">
-        <v>2.445226081185751</v>
+        <v>0.9544579554704455</v>
       </c>
       <c r="D24">
-        <v>0.0581489494264531</v>
+        <v>0.08177228860449048</v>
       </c>
       <c r="E24">
-        <v>0.1672902439688428</v>
+        <v>0.1415039311754214</v>
       </c>
       <c r="F24">
-        <v>3.363785585480002</v>
+        <v>2.848640433804405</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>1.137998278494678</v>
+        <v>1.200399832382644</v>
       </c>
       <c r="J24">
-        <v>0.327783167269132</v>
+        <v>0.2335922299010065</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5100108581096841</v>
+        <v>1.38784785512771</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.817000795698505</v>
+        <v>2.11610759024154</v>
       </c>
       <c r="C25">
-        <v>1.965010261010832</v>
+        <v>0.8430904984646759</v>
       </c>
       <c r="D25">
-        <v>0.04896188874982244</v>
+        <v>0.07986591217660077</v>
       </c>
       <c r="E25">
-        <v>0.1386626512933837</v>
+        <v>0.1361445130052452</v>
       </c>
       <c r="F25">
-        <v>2.818937999622506</v>
+        <v>2.761586229951092</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.9824462463625423</v>
+        <v>1.183233321581369</v>
       </c>
       <c r="J25">
-        <v>0.2696826563196026</v>
+        <v>0.2227718428262762</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.602984657395929</v>
+        <v>1.423583010745148</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_79/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_79/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.915337084950181</v>
+        <v>3.996919632131949</v>
       </c>
       <c r="C2">
-        <v>0.7626329390460569</v>
+        <v>1.626856117552279</v>
       </c>
       <c r="D2">
-        <v>0.07852688190416757</v>
+        <v>0.04233555741362949</v>
       </c>
       <c r="E2">
-        <v>0.1324298137335624</v>
+        <v>0.1186209175981467</v>
       </c>
       <c r="F2">
-        <v>2.703581118045165</v>
+        <v>2.449829431937573</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>1.173246884594349</v>
+        <v>0.8808736830068185</v>
       </c>
       <c r="J2">
-        <v>0.2152654089921668</v>
+        <v>0.2294894758312722</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.451936423763815</v>
+        <v>0.6781183622178908</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.781360351033243</v>
+        <v>3.455240944645197</v>
       </c>
       <c r="C3">
-        <v>0.7090328520514504</v>
+        <v>1.404698135645333</v>
       </c>
       <c r="D3">
-        <v>0.07766014432240098</v>
+        <v>0.03790966611082069</v>
       </c>
       <c r="E3">
-        <v>0.1300552079161754</v>
+        <v>0.1055338581493857</v>
       </c>
       <c r="F3">
-        <v>2.668008519446701</v>
+        <v>2.215227122679494</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.168108977947341</v>
+        <v>0.8184283131629471</v>
       </c>
       <c r="J3">
-        <v>0.2104604425792473</v>
+        <v>0.2034805648970419</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.472418139736345</v>
+        <v>0.7326602509685323</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.700109919135059</v>
+        <v>3.128108724034007</v>
       </c>
       <c r="C4">
-        <v>0.6765687448395852</v>
+        <v>1.271017244826226</v>
       </c>
       <c r="D4">
-        <v>0.07714822277164046</v>
+        <v>0.03521819920909763</v>
       </c>
       <c r="E4">
-        <v>0.1286672436207787</v>
+        <v>0.09770002964090096</v>
       </c>
       <c r="F4">
-        <v>2.647991089842819</v>
+        <v>2.07759133466476</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.165750334107372</v>
+        <v>0.782760728997502</v>
       </c>
       <c r="J4">
-        <v>0.2076478186260147</v>
+        <v>0.1880100092595427</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.485616131307431</v>
+        <v>0.7677832491068699</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.667252282828542</v>
+        <v>2.995975071651742</v>
       </c>
       <c r="C5">
-        <v>0.6634503937988256</v>
+        <v>1.217129302794433</v>
       </c>
       <c r="D5">
-        <v>0.076944736355685</v>
+        <v>0.03412718639225432</v>
       </c>
       <c r="E5">
-        <v>0.1281192083343079</v>
+        <v>0.0945527337705343</v>
       </c>
       <c r="F5">
-        <v>2.64029000404939</v>
+        <v>2.022948369704636</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.164988256555255</v>
+        <v>0.7688345065975497</v>
       </c>
       <c r="J5">
-        <v>0.2065360688796289</v>
+        <v>0.1818167914395019</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.491150447538445</v>
+        <v>0.7824864354187184</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.661811498981422</v>
+        <v>2.974099936197433</v>
       </c>
       <c r="C6">
-        <v>0.6612787716595676</v>
+        <v>1.208214106501828</v>
       </c>
       <c r="D6">
-        <v>0.07691125811180655</v>
+        <v>0.03394635278009162</v>
       </c>
       <c r="E6">
-        <v>0.1280292675090493</v>
+        <v>0.09403269320567276</v>
       </c>
       <c r="F6">
-        <v>2.63903872269826</v>
+        <v>2.013957605731576</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.164873707134326</v>
+        <v>0.7665570715854955</v>
       </c>
       <c r="J6">
-        <v>0.206353536779659</v>
+        <v>0.1807947326455874</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.492078828231861</v>
+        <v>0.7849508945049557</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.69966576933416</v>
+        <v>3.126322212299215</v>
       </c>
       <c r="C7">
-        <v>0.6763913782265263</v>
+        <v>1.270288233621557</v>
       </c>
       <c r="D7">
-        <v>0.07714545768549641</v>
+        <v>0.03520346297680987</v>
       </c>
       <c r="E7">
-        <v>0.128659781535454</v>
+        <v>0.09765740879054619</v>
       </c>
       <c r="F7">
-        <v>2.647885386646948</v>
+        <v>2.076848760750792</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.165739251808446</v>
+        <v>0.7825705309314088</v>
       </c>
       <c r="J7">
-        <v>0.2076326860792861</v>
+        <v>0.1879260532349321</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.485690137848817</v>
+        <v>0.7679799870035318</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.868930727528493</v>
+        <v>3.808890299732411</v>
       </c>
       <c r="C8">
-        <v>0.7440581658861447</v>
+        <v>1.549628944815083</v>
       </c>
       <c r="D8">
-        <v>0.07822384445246655</v>
+        <v>0.04080361462099091</v>
       </c>
       <c r="E8">
-        <v>0.1315964821197717</v>
+        <v>0.1140630590374236</v>
       </c>
       <c r="F8">
-        <v>2.690935490946458</v>
+        <v>2.367502108587729</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.171309453041516</v>
+        <v>0.8587471558175466</v>
       </c>
       <c r="J8">
-        <v>0.2135799684315742</v>
+        <v>0.220408966480008</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.458869147399088</v>
+        <v>0.6965722190272778</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.208991472260038</v>
+        <v>5.200796936905249</v>
       </c>
       <c r="C9">
-        <v>0.8803605316772973</v>
+        <v>2.123989778974362</v>
       </c>
       <c r="D9">
-        <v>0.08049809227335913</v>
+        <v>0.05203197261631942</v>
       </c>
       <c r="E9">
-        <v>0.1379136895224633</v>
+        <v>0.1481225962348489</v>
       </c>
       <c r="F9">
-        <v>2.789955708269218</v>
+        <v>2.996834183852002</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.188600361106026</v>
+        <v>1.03258157503403</v>
       </c>
       <c r="J9">
-        <v>0.2263444712621521</v>
+        <v>0.2887957534804002</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.411227413368369</v>
+        <v>0.5705488274494392</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.463966126344872</v>
+        <v>6.272056144141175</v>
       </c>
       <c r="C10">
-        <v>0.9828027359249631</v>
+        <v>2.570108792113729</v>
       </c>
       <c r="D10">
-        <v>0.08226487072695932</v>
+        <v>0.06049616027070925</v>
       </c>
       <c r="E10">
-        <v>0.1428995463344478</v>
+        <v>0.1747566980734803</v>
       </c>
       <c r="F10">
-        <v>2.871790857142798</v>
+        <v>3.508936931262951</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.20526084678022</v>
+        <v>1.180355492113137</v>
       </c>
       <c r="J10">
-        <v>0.2364092117751539</v>
+        <v>0.3430610620930565</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.379268598836834</v>
+        <v>0.4881545887356609</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.58111523309941</v>
+        <v>6.774226401076305</v>
       </c>
       <c r="C11">
-        <v>1.029928884805202</v>
+        <v>2.780419811044396</v>
       </c>
       <c r="D11">
-        <v>0.08308917981138109</v>
+        <v>0.06441058075865413</v>
       </c>
       <c r="E11">
-        <v>0.1452435530185952</v>
+        <v>0.1873449585842692</v>
       </c>
       <c r="F11">
-        <v>2.911033834040921</v>
+        <v>3.756306410121027</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.213715941644594</v>
+        <v>1.253306099965187</v>
       </c>
       <c r="J11">
-        <v>0.2411403839801238</v>
+        <v>0.3689308640113467</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.365395732194578</v>
+        <v>0.4533277147773909</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.625646091311921</v>
+        <v>6.966942371928724</v>
       </c>
       <c r="C12">
-        <v>1.047851449854477</v>
+        <v>2.861329561599575</v>
       </c>
       <c r="D12">
-        <v>0.08340425923006478</v>
+        <v>0.06590377006515524</v>
       </c>
       <c r="E12">
-        <v>0.1461421527264122</v>
+        <v>0.1921917845775525</v>
       </c>
       <c r="F12">
-        <v>2.926187190886651</v>
+        <v>3.852408768069239</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
-        <v>1.217044975724519</v>
+        <v>1.281890218180621</v>
       </c>
       <c r="J12">
-        <v>0.242954162847056</v>
+        <v>0.3789281508097133</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.360238601176519</v>
+        <v>0.4405658895848354</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.616048019923255</v>
+        <v>6.925316502858038</v>
       </c>
       <c r="C13">
-        <v>1.043988060277286</v>
+        <v>2.843844025410476</v>
       </c>
       <c r="D13">
-        <v>0.08333627133048083</v>
+        <v>0.06558167138548043</v>
       </c>
       <c r="E13">
-        <v>0.1459481341187754</v>
+        <v>0.1911441673557945</v>
       </c>
       <c r="F13">
-        <v>2.922910569060519</v>
+        <v>3.831597085620899</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.216322327524622</v>
+        <v>1.275689056781829</v>
       </c>
       <c r="J13">
-        <v>0.242562542605782</v>
+        <v>0.3767655771936518</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.361344993294402</v>
+        <v>0.443294626394966</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.584775412808597</v>
+        <v>6.790027412083134</v>
       </c>
       <c r="C14">
-        <v>1.031401835006193</v>
+        <v>2.787049537421467</v>
       </c>
       <c r="D14">
-        <v>0.08311504300216654</v>
+        <v>0.06453319765759602</v>
       </c>
       <c r="E14">
-        <v>0.1453172610535987</v>
+        <v>0.1877420324533077</v>
       </c>
       <c r="F14">
-        <v>2.912274622278858</v>
+        <v>3.76416188386375</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.213987265122839</v>
+        <v>1.255637652002648</v>
       </c>
       <c r="J14">
-        <v>0.241289158656727</v>
+        <v>0.3697491261350905</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.364969520321921</v>
+        <v>0.4522689656160033</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.565642118991832</v>
+        <v>6.707505260470214</v>
       </c>
       <c r="C15">
-        <v>1.023702469322473</v>
+        <v>2.752433412753987</v>
       </c>
       <c r="D15">
-        <v>0.08297991515330239</v>
+        <v>0.063892448888204</v>
       </c>
       <c r="E15">
-        <v>0.1449322641628399</v>
+        <v>0.1856689240132567</v>
       </c>
       <c r="F15">
-        <v>2.905798031891067</v>
+        <v>3.723183741759186</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.212573585099236</v>
+        <v>1.243484912627949</v>
       </c>
       <c r="J15">
-        <v>0.2405120705589781</v>
+        <v>0.3654785112045715</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.367202195143513</v>
+        <v>0.4578229782018219</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.456333686705534</v>
+        <v>6.23957134980617</v>
       </c>
       <c r="C16">
-        <v>0.9797336138358901</v>
+        <v>2.556529945654177</v>
       </c>
       <c r="D16">
-        <v>0.08221141201237003</v>
+        <v>0.06024176937277304</v>
       </c>
       <c r="E16">
-        <v>0.1427478925708741</v>
+        <v>0.173944513943141</v>
       </c>
       <c r="F16">
-        <v>2.869267056333968</v>
+        <v>3.493089972122164</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.20472602618652</v>
+        <v>1.175714373437955</v>
       </c>
       <c r="J16">
-        <v>0.2361031104683207</v>
+        <v>0.3413967521063057</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.380188658327363</v>
+        <v>0.4904876810460621</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.389575150615315</v>
+        <v>5.956591020396218</v>
       </c>
       <c r="C17">
-        <v>0.9528955618046098</v>
+        <v>2.438376067524359</v>
       </c>
       <c r="D17">
-        <v>0.08174521316590955</v>
+        <v>0.05801970569253712</v>
       </c>
       <c r="E17">
-        <v>0.1414273362581895</v>
+        <v>0.1668809079467763</v>
       </c>
       <c r="F17">
-        <v>2.847374909556493</v>
+        <v>3.355862689000361</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.200137114456851</v>
+        <v>1.135696388771009</v>
       </c>
       <c r="J17">
-        <v>0.2334376231618194</v>
+        <v>0.3269470309392659</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.388326231233403</v>
+        <v>0.5112359415286711</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.351286439348883</v>
+        <v>5.795197258729161</v>
       </c>
       <c r="C18">
-        <v>0.9375083195310481</v>
+        <v>2.371096355633028</v>
       </c>
       <c r="D18">
-        <v>0.08147900794642027</v>
+        <v>0.05674754459758447</v>
       </c>
       <c r="E18">
-        <v>0.1406749290831542</v>
+        <v>0.162861742084651</v>
       </c>
       <c r="F18">
-        <v>2.83497267418187</v>
+        <v>3.278265313357878</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.197580083948381</v>
+        <v>1.113208943388457</v>
       </c>
       <c r="J18">
-        <v>0.2319188613162595</v>
+        <v>0.3187453055367513</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.393069341393971</v>
+        <v>0.5234166140097223</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.338341198671912</v>
+        <v>5.740775482872436</v>
       </c>
       <c r="C19">
-        <v>0.932306886013464</v>
+        <v>2.348427403510414</v>
       </c>
       <c r="D19">
-        <v>0.08138920955084927</v>
+        <v>0.05631778102578977</v>
       </c>
       <c r="E19">
-        <v>0.140421401811416</v>
+        <v>0.1615080791976524</v>
       </c>
       <c r="F19">
-        <v>2.830805953992183</v>
+        <v>3.252210989905677</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.196728429145537</v>
+        <v>1.105682282772079</v>
       </c>
       <c r="J19">
-        <v>0.2314070932847017</v>
+        <v>0.3159862692432256</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.394686011046652</v>
+        <v>0.5275819246702902</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.396670410168952</v>
+        <v>5.986570234219357</v>
       </c>
       <c r="C20">
-        <v>0.9557474058384514</v>
+        <v>2.450882032647371</v>
       </c>
       <c r="D20">
-        <v>0.08179464026098771</v>
+        <v>0.05825562506088033</v>
       </c>
       <c r="E20">
-        <v>0.1415671721548293</v>
+        <v>0.1676282438182568</v>
       </c>
       <c r="F20">
-        <v>2.849685726631748</v>
+        <v>3.370330490320356</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.200617075647301</v>
+        <v>1.139900618835938</v>
       </c>
       <c r="J20">
-        <v>0.2337198813780503</v>
+        <v>0.3284737019349251</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.387453490612266</v>
+        <v>0.5090014076866431</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.593956329811306</v>
+        <v>6.829692078971902</v>
       </c>
       <c r="C21">
-        <v>1.035096615158579</v>
+        <v>2.803695157739526</v>
       </c>
       <c r="D21">
-        <v>0.08317994380021787</v>
+        <v>0.06484084973239135</v>
       </c>
       <c r="E21">
-        <v>0.1455022654228415</v>
+        <v>0.1887390475852513</v>
       </c>
       <c r="F21">
-        <v>2.915390684230005</v>
+        <v>3.783900191577004</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.214669665075419</v>
+        <v>1.261500010986609</v>
       </c>
       <c r="J21">
-        <v>0.2416625783738482</v>
+        <v>0.3718043051098761</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.363902293025522</v>
+        <v>0.4496210219792118</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.723880431451107</v>
+        <v>7.395858963247861</v>
       </c>
       <c r="C22">
-        <v>1.087404934490905</v>
+        <v>3.041802235177272</v>
       </c>
       <c r="D22">
-        <v>0.08410239312979684</v>
+        <v>0.06920909345447512</v>
       </c>
       <c r="E22">
-        <v>0.1481380771646172</v>
+        <v>0.2030090679436469</v>
       </c>
       <c r="F22">
-        <v>2.960041320517519</v>
+        <v>4.068558420307596</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.224596299066405</v>
+        <v>1.346643314561916</v>
       </c>
       <c r="J22">
-        <v>0.2469830219693705</v>
+        <v>0.4013126686027277</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.349071342928731</v>
+        <v>0.4133238415681149</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.654446482806179</v>
+        <v>7.092143127820179</v>
       </c>
       <c r="C23">
-        <v>1.05944542139008</v>
+        <v>2.913952981853186</v>
       </c>
       <c r="D23">
-        <v>0.08360851202740349</v>
+        <v>0.06687115805837607</v>
       </c>
       <c r="E23">
-        <v>0.1467254188394662</v>
+        <v>0.195345133566569</v>
       </c>
       <c r="F23">
-        <v>2.936053079749968</v>
+        <v>3.915183098931749</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.219229904137109</v>
+        <v>1.300631101056041</v>
       </c>
       <c r="J23">
-        <v>0.2441314799761614</v>
+        <v>0.3854432048489826</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.356935374816661</v>
+        <v>0.4324498406678252</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.393462357991496</v>
+        <v>5.973012627588048</v>
       </c>
       <c r="C24">
-        <v>0.9544579554704455</v>
+        <v>2.445226081186206</v>
       </c>
       <c r="D24">
-        <v>0.08177228860449048</v>
+        <v>0.05814894942633231</v>
       </c>
       <c r="E24">
-        <v>0.1415039311754214</v>
+        <v>0.1672902439688357</v>
       </c>
       <c r="F24">
-        <v>2.848640433804405</v>
+        <v>3.363785585480002</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.200399832382644</v>
+        <v>1.137998278494692</v>
       </c>
       <c r="J24">
-        <v>0.2335922299010065</v>
+        <v>0.3277831672690752</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.38784785512771</v>
+        <v>0.5100108581096912</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.11610759024154</v>
+        <v>4.817000795698448</v>
       </c>
       <c r="C25">
-        <v>0.8430904984646759</v>
+        <v>1.965010261010775</v>
       </c>
       <c r="D25">
-        <v>0.07986591217660077</v>
+        <v>0.04896188874980112</v>
       </c>
       <c r="E25">
-        <v>0.1361445130052452</v>
+        <v>0.1386626512933518</v>
       </c>
       <c r="F25">
-        <v>2.761586229951092</v>
+        <v>2.818937999622506</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.183233321581369</v>
+        <v>0.9824462463625423</v>
       </c>
       <c r="J25">
-        <v>0.2227718428262762</v>
+        <v>0.269682656319759</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.423583010745148</v>
+        <v>0.6029846573959077</v>
       </c>
       <c r="O25">
         <v>0</v>
